--- a/predictions/single/LinearRegression/Retinopatía de fondo.xlsx
+++ b/predictions/single/LinearRegression/Retinopatía de fondo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,6 +451,11 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>MAE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Tipo</t>
         </is>
       </c>
@@ -467,7 +472,10 @@
       <c r="C2" t="n">
         <v>0.9392010439445886</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="n">
+        <v>2.046624516121589</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>single</t>
         </is>

--- a/predictions/single/LinearRegression/Retinopatía de fondo.xlsx
+++ b/predictions/single/LinearRegression/Retinopatía de fondo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>Tipo</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Modelo</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -478,6 +483,11 @@
       <c r="E2" t="inlineStr">
         <is>
           <t>single</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('model', LinearRegression())])</t>
         </is>
       </c>
     </row>

--- a/predictions/single/LinearRegression/Retinopatía de fondo.xlsx
+++ b/predictions/single/LinearRegression/Retinopatía de fondo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,16 @@
           <t>Modelo</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Elapsed Time</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CPU</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -489,6 +499,12 @@
         <is>
           <t>Pipeline(steps=[('model', LinearRegression())])</t>
         </is>
+      </c>
+      <c r="G2" t="n">
+        <v>0.1194315095165318</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.9890000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/predictions/single/LinearRegression/Retinopatía de fondo.xlsx
+++ b/predictions/single/LinearRegression/Retinopatía de fondo.xlsx
@@ -501,10 +501,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.1194315095165318</v>
+        <v>0.1244229128666727</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9890000000000001</v>
+        <v>0.987</v>
       </c>
     </row>
   </sheetData>

--- a/predictions/single/LinearRegression/Retinopatía de fondo.xlsx
+++ b/predictions/single/LinearRegression/Retinopatía de fondo.xlsx
@@ -501,10 +501,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.1244229128666727</v>
+        <v>0.1217136106832186</v>
       </c>
       <c r="H2" t="n">
-        <v>0.987</v>
+        <v>0.9740000000000001</v>
       </c>
     </row>
   </sheetData>
